--- a/TESİS İŞLETME İZNİ kontrol listesi 2023 ver3.xlsx
+++ b/TESİS İŞLETME İZNİ kontrol listesi 2023 ver3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="10785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1731,228 +1731,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1960,6 +1738,266 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1975,50 +2013,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2377,8 +2377,8 @@
   </sheetPr>
   <dimension ref="A1:S179"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,35 +2401,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:19" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
       <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:19" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="82"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="5" t="s">
         <v>136</v>
       </c>
@@ -2439,12 +2439,12 @@
       <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -2453,14 +2453,14 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -2473,14 +2473,14 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="126"/>
       <c r="G6" s="17"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -2492,16 +2492,16 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="17"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2513,11 +2513,11 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
       <c r="F8" s="12" t="s">
         <v>100</v>
       </c>
@@ -2534,21 +2534,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="78"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="21" t="s">
         <v>129</v>
       </c>
@@ -2562,17 +2562,17 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="52" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="78"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="21" t="s">
         <v>130</v>
       </c>
@@ -2586,17 +2586,17 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="48" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="78"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -2608,21 +2608,21 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="A12" s="60">
         <v>2</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="78"/>
+      <c r="G12" s="110"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -2633,17 +2633,17 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="78"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -2654,17 +2654,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="52" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="78"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -2672,17 +2672,17 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -2693,17 +2693,17 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="66"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -2714,17 +2714,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="3" t="s">
         <v>98</v>
       </c>
@@ -2739,13 +2739,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="52" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="34" t="s">
         <v>98</v>
       </c>
@@ -2757,13 +2757,13 @@
       <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="52" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="34" t="s">
         <v>98</v>
       </c>
@@ -2775,13 +2775,13 @@
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="35" t="s">
         <v>98</v>
       </c>
@@ -2794,21 +2794,21 @@
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="78"/>
+      <c r="G21" s="110"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -2820,17 +2820,17 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="52" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="75" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="78"/>
+      <c r="G22" s="110"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -2842,15 +2842,15 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="52" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="78"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -2862,15 +2862,15 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="52" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="78"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="110"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -2879,15 +2879,15 @@
       <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="52" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="78"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="110"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -2899,17 +2899,17 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="48" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="78"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -2921,17 +2921,17 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="3" t="s">
         <v>98</v>
       </c>
@@ -2944,13 +2944,13 @@
       <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="52" t="s">
+      <c r="A28" s="61"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="34" t="s">
         <v>98</v>
       </c>
@@ -2963,13 +2963,13 @@
       <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="48" t="s">
+      <c r="A29" s="66"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="35" t="s">
         <v>98</v>
       </c>
@@ -2982,17 +2982,17 @@
       <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="3" t="s">
         <v>98</v>
       </c>
@@ -3005,13 +3005,13 @@
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="48" t="s">
+      <c r="A31" s="66"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
       <c r="F31" s="35" t="s">
         <v>98</v>
       </c>
@@ -3024,17 +3024,17 @@
       <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="3" t="s">
         <v>98</v>
       </c>
@@ -3047,13 +3047,13 @@
       <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="52" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="34" t="s">
         <v>98</v>
       </c>
@@ -3066,13 +3066,13 @@
       <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="52" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="34" t="s">
         <v>98</v>
       </c>
@@ -3085,13 +3085,13 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="48" t="s">
+      <c r="A35" s="66"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
       <c r="F35" s="35" t="s">
         <v>98</v>
       </c>
@@ -3104,21 +3104,21 @@
       <c r="M35" s="21"/>
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="78"/>
+      <c r="G36" s="110"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -3127,17 +3127,17 @@
       <c r="M36" s="21"/>
     </row>
     <row r="37" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="52" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="78"/>
+      <c r="G37" s="110"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -3146,17 +3146,17 @@
       <c r="M37" s="21"/>
     </row>
     <row r="38" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="52" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="78"/>
+      <c r="G38" s="110"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -3165,15 +3165,15 @@
       <c r="M38" s="21"/>
     </row>
     <row r="39" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="78"/>
+      <c r="G39" s="110"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -3182,15 +3182,15 @@
       <c r="M39" s="21"/>
     </row>
     <row r="40" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="78"/>
+      <c r="G40" s="110"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
@@ -3199,17 +3199,17 @@
       <c r="M40" s="21"/>
     </row>
     <row r="41" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
       <c r="F41" s="3" t="s">
         <v>98</v>
       </c>
@@ -3222,13 +3222,13 @@
       <c r="M41" s="21"/>
     </row>
     <row r="42" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="48" t="s">
+      <c r="A42" s="66"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="35" t="s">
         <v>98</v>
       </c>
@@ -3241,21 +3241,21 @@
       <c r="M42" s="21"/>
     </row>
     <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
       <c r="F43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="78"/>
+      <c r="G43" s="110"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -3264,17 +3264,17 @@
       <c r="M43" s="21"/>
     </row>
     <row r="44" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="52" t="s">
+      <c r="A44" s="61"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="78"/>
+      <c r="G44" s="110"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -3283,17 +3283,17 @@
       <c r="M44" s="21"/>
     </row>
     <row r="45" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="52" t="s">
+      <c r="A45" s="61"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="110"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -3302,17 +3302,17 @@
       <c r="M45" s="21"/>
     </row>
     <row r="46" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="52" t="s">
+      <c r="A46" s="61"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="78"/>
+      <c r="G46" s="110"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -3321,17 +3321,17 @@
       <c r="M46" s="21"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="52" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
       <c r="F47" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="78"/>
+      <c r="G47" s="110"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -3340,17 +3340,17 @@
       <c r="M47" s="21"/>
     </row>
     <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
       <c r="F48" s="3" t="s">
         <v>98</v>
       </c>
@@ -3363,13 +3363,13 @@
       <c r="M48" s="21"/>
     </row>
     <row r="49" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="52" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="34" t="s">
         <v>98</v>
       </c>
@@ -3382,21 +3382,21 @@
       <c r="M49" s="21"/>
     </row>
     <row r="50" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
       <c r="F50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="78"/>
+      <c r="G50" s="110"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
@@ -3405,17 +3405,17 @@
       <c r="M50" s="21"/>
     </row>
     <row r="51" spans="1:14" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="64"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="48" t="s">
+      <c r="A51" s="66"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
       <c r="F51" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G51" s="78"/>
+      <c r="G51" s="110"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -3427,21 +3427,21 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
       <c r="F52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="78"/>
+      <c r="G52" s="110"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -3453,17 +3453,17 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="52" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
       <c r="F53" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G53" s="78"/>
+      <c r="G53" s="110"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
@@ -3472,15 +3472,15 @@
       <c r="M53" s="21"/>
     </row>
     <row r="54" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="52" t="s">
+      <c r="A54" s="61"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="34"/>
-      <c r="G54" s="78"/>
+      <c r="G54" s="110"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
@@ -3489,17 +3489,17 @@
       <c r="M54" s="21"/>
     </row>
     <row r="55" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="52" t="s">
+      <c r="A55" s="61"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G55" s="78"/>
+      <c r="G55" s="110"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
@@ -3508,17 +3508,17 @@
       <c r="M55" s="21"/>
     </row>
     <row r="56" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="52" t="s">
+      <c r="A56" s="61"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
       <c r="F56" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G56" s="78"/>
+      <c r="G56" s="110"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
@@ -3527,15 +3527,15 @@
       <c r="M56" s="21"/>
     </row>
     <row r="57" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="52" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
       <c r="F57" s="34"/>
-      <c r="G57" s="78"/>
+      <c r="G57" s="110"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
@@ -3544,17 +3544,17 @@
       <c r="M57" s="21"/>
     </row>
     <row r="58" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="52" t="s">
+      <c r="A58" s="61"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="78"/>
+      <c r="G58" s="110"/>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
@@ -3563,17 +3563,17 @@
       <c r="M58" s="21"/>
     </row>
     <row r="59" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="64"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="48" t="s">
+      <c r="A59" s="66"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
       <c r="F59" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="78"/>
+      <c r="G59" s="110"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
@@ -3582,21 +3582,21 @@
       <c r="M59" s="21"/>
     </row>
     <row r="60" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
       <c r="F60" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G60" s="78"/>
+      <c r="G60" s="110"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
@@ -3605,17 +3605,17 @@
       <c r="M60" s="21"/>
     </row>
     <row r="61" spans="1:14" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="48" t="s">
+      <c r="A61" s="66"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
       <c r="F61" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G61" s="78"/>
+      <c r="G61" s="110"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
@@ -3630,11 +3630,11 @@
       <c r="B62" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
       <c r="F62" s="4" t="s">
         <v>98</v>
       </c>
@@ -3647,21 +3647,21 @@
       <c r="M62" s="21"/>
     </row>
     <row r="63" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
       <c r="F63" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G63" s="78"/>
+      <c r="G63" s="110"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
@@ -3670,17 +3670,17 @@
       <c r="M63" s="21"/>
     </row>
     <row r="64" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="52" t="s">
+      <c r="A64" s="61"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G64" s="78"/>
+      <c r="G64" s="110"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
@@ -3689,17 +3689,17 @@
       <c r="M64" s="21"/>
     </row>
     <row r="65" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="52" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
       <c r="F65" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G65" s="78"/>
+      <c r="G65" s="110"/>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
@@ -3708,17 +3708,17 @@
       <c r="M65" s="21"/>
     </row>
     <row r="66" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="52" t="s">
+      <c r="A66" s="61"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
       <c r="F66" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G66" s="78"/>
+      <c r="G66" s="110"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
@@ -3727,17 +3727,17 @@
       <c r="M66" s="21"/>
     </row>
     <row r="67" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="48" t="s">
+      <c r="A67" s="66"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
       <c r="F67" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G67" s="78"/>
+      <c r="G67" s="110"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
@@ -3746,21 +3746,21 @@
       <c r="M67" s="21"/>
     </row>
     <row r="68" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
       <c r="F68" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G68" s="78"/>
+      <c r="G68" s="110"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
@@ -3769,17 +3769,17 @@
       <c r="M68" s="21"/>
     </row>
     <row r="69" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="52" t="s">
+      <c r="A69" s="61"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
       <c r="F69" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G69" s="78"/>
+      <c r="G69" s="110"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
@@ -3788,17 +3788,17 @@
       <c r="M69" s="21"/>
     </row>
     <row r="70" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="64"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="48" t="s">
+      <c r="A70" s="66"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
       <c r="F70" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G70" s="78"/>
+      <c r="G70" s="110"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
@@ -3807,17 +3807,17 @@
       <c r="M70" s="21"/>
     </row>
     <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="78"/>
       <c r="F71" s="3" t="s">
         <v>98</v>
       </c>
@@ -3830,13 +3830,13 @@
       <c r="M71" s="21"/>
     </row>
     <row r="72" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="64"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="48" t="s">
+      <c r="A72" s="66"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
       <c r="F72" s="35" t="s">
         <v>98</v>
       </c>
@@ -3849,17 +3849,17 @@
       <c r="M72" s="21"/>
     </row>
     <row r="73" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
       <c r="F73" s="3"/>
       <c r="G73" s="17"/>
       <c r="H73" s="21"/>
@@ -3870,13 +3870,13 @@
       <c r="M73" s="21"/>
     </row>
     <row r="74" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="52" t="s">
+      <c r="A74" s="61"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
       <c r="F74" s="34"/>
       <c r="G74" s="17"/>
       <c r="H74" s="21"/>
@@ -3887,95 +3887,95 @@
       <c r="M74" s="21"/>
     </row>
     <row r="75" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="64"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="48" t="s">
+      <c r="A75" s="66"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
       <c r="F75" s="40"/>
     </row>
     <row r="76" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="67" t="s">
+      <c r="C76" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
       <c r="F76" s="41"/>
     </row>
     <row r="77" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="52" t="s">
+      <c r="A77" s="61"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
       <c r="F77" s="39"/>
     </row>
     <row r="78" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="64"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="48" t="s">
+      <c r="A78" s="66"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
       <c r="F78" s="40"/>
     </row>
     <row r="79" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="67" t="s">
+      <c r="C79" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
       <c r="F79" s="41"/>
     </row>
     <row r="80" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="52" t="s">
+      <c r="A80" s="128"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
       <c r="F80" s="39"/>
     </row>
     <row r="81" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="58"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="48" t="s">
+      <c r="A81" s="129"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="40"/>
     </row>
     <row r="82" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
       <c r="F82" s="3" t="s">
         <v>98</v>
       </c>
@@ -3988,13 +3988,13 @@
       <c r="M82" s="21"/>
     </row>
     <row r="83" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="52" t="s">
+      <c r="A83" s="61"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
       <c r="F83" s="34" t="s">
         <v>98</v>
       </c>
@@ -4007,13 +4007,13 @@
       <c r="M83" s="21"/>
     </row>
     <row r="84" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="52" t="s">
+      <c r="A84" s="61"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
       <c r="F84" s="34" t="s">
         <v>98</v>
       </c>
@@ -4026,13 +4026,13 @@
       <c r="M84" s="21"/>
     </row>
     <row r="85" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="64"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="48" t="s">
+      <c r="A85" s="66"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
       <c r="F85" s="35" t="s">
         <v>98</v>
       </c>
@@ -4045,17 +4045,17 @@
       <c r="M85" s="21"/>
     </row>
     <row r="86" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="67" t="s">
+      <c r="C86" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
       <c r="F86" s="3" t="s">
         <v>98</v>
       </c>
@@ -4068,13 +4068,13 @@
       <c r="M86" s="21"/>
     </row>
     <row r="87" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="52" t="s">
+      <c r="A87" s="61"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
       <c r="F87" s="34" t="s">
         <v>98</v>
       </c>
@@ -4087,13 +4087,13 @@
       <c r="M87" s="21"/>
     </row>
     <row r="88" spans="1:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="64"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="48" t="s">
+      <c r="A88" s="66"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
       <c r="F88" s="35" t="s">
         <v>98</v>
       </c>
@@ -4106,17 +4106,17 @@
       <c r="M88" s="17"/>
     </row>
     <row r="89" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="67" t="s">
+      <c r="C89" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
       <c r="F89" s="3" t="s">
         <v>98</v>
       </c>
@@ -4129,13 +4129,13 @@
       <c r="M89" s="17"/>
     </row>
     <row r="90" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="52" t="s">
+      <c r="A90" s="61"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
       <c r="F90" s="34" t="s">
         <v>98</v>
       </c>
@@ -4148,13 +4148,13 @@
       <c r="M90" s="17"/>
     </row>
     <row r="91" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="64"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="48" t="s">
+      <c r="A91" s="66"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
       <c r="F91" s="35" t="s">
         <v>98</v>
       </c>
@@ -4167,241 +4167,241 @@
       <c r="M91" s="17"/>
     </row>
     <row r="92" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="53" t="s">
+      <c r="B92" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="67" t="s">
+      <c r="C92" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="78"/>
       <c r="F92" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="52" t="s">
+      <c r="A93" s="61"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
       <c r="F93" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="64"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="48" t="s">
+      <c r="A94" s="66"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
       <c r="F94" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="62" t="s">
+      <c r="A95" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="B95" s="53" t="s">
+      <c r="B95" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="67" t="s">
+      <c r="C95" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="78"/>
       <c r="F95" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="52" t="s">
+      <c r="A96" s="61"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
       <c r="F96" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="63"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="52" t="s">
+      <c r="A97" s="61"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
       <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="64"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="48" t="s">
+      <c r="A98" s="66"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="79"/>
       <c r="F98" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="62" t="s">
+      <c r="A99" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="67" t="s">
+      <c r="C99" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="78"/>
       <c r="F99" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="63"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="52" t="s">
+      <c r="A100" s="61"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
       <c r="F100" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="52" t="s">
+      <c r="A101" s="61"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
       <c r="F101" s="34"/>
     </row>
     <row r="102" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="64"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="48" t="s">
+      <c r="A102" s="66"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
       <c r="F102" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="62" t="s">
+      <c r="A103" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="67" t="s">
+      <c r="C103" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
       <c r="F103" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="63"/>
-      <c r="B104" s="54"/>
-      <c r="C104" s="52" t="s">
+      <c r="A104" s="61"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
       <c r="F104" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="63"/>
-      <c r="B105" s="54"/>
-      <c r="C105" s="52" t="s">
+      <c r="A105" s="61"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
       <c r="F105" s="34"/>
     </row>
     <row r="106" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="64"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="48" t="s">
+      <c r="A106" s="66"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
       <c r="F106" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="62" t="s">
+      <c r="A107" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="67" t="s">
+      <c r="C107" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
       <c r="F107" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="63"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="52" t="s">
+      <c r="A108" s="61"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
       <c r="F108" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="63"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="52" t="s">
+      <c r="A109" s="61"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
       <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="64"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="48" t="s">
+      <c r="A110" s="66"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="48"/>
-      <c r="E110" s="48"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
       <c r="F110" s="35" t="s">
         <v>98</v>
       </c>
@@ -4410,609 +4410,609 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" s="25" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="62" t="s">
+      <c r="A111" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C111" s="67" t="s">
+      <c r="C111" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="78"/>
       <c r="F111" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="25" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="64"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="48" t="s">
+      <c r="A112" s="66"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
       <c r="F112" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B113" s="53" t="s">
+      <c r="B113" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="67" t="s">
+      <c r="C113" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="78"/>
       <c r="F113" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="52" t="s">
+      <c r="A114" s="61"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="65"/>
       <c r="F114" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
-      <c r="B115" s="54"/>
-      <c r="C115" s="52" t="s">
+      <c r="A115" s="61"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
       <c r="F115" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="64"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="48" t="s">
+      <c r="A116" s="66"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="D116" s="48"/>
-      <c r="E116" s="48"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
       <c r="F116" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="62" t="s">
+      <c r="A117" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="53" t="s">
+      <c r="B117" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="67" t="s">
+      <c r="C117" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="78"/>
       <c r="F117" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
-      <c r="B118" s="54"/>
-      <c r="C118" s="52" t="s">
+      <c r="A118" s="61"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="D118" s="52"/>
-      <c r="E118" s="52"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="65"/>
       <c r="F118" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="63"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="52" t="s">
+      <c r="A119" s="61"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="65"/>
       <c r="F119" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="64"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="48" t="s">
+      <c r="A120" s="66"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="79"/>
       <c r="F120" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="62" t="s">
+      <c r="A121" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="53" t="s">
+      <c r="B121" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="67" t="s">
+      <c r="C121" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
+      <c r="D121" s="78"/>
+      <c r="E121" s="78"/>
       <c r="F121" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="63"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="52" t="s">
+      <c r="A122" s="61"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
       <c r="F122" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="63"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="52" t="s">
+      <c r="A123" s="61"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
       <c r="F123" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="64"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="48" t="s">
+      <c r="A124" s="66"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
       <c r="F124" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="62" t="s">
+      <c r="A125" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B125" s="53" t="s">
+      <c r="B125" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="67" t="s">
+      <c r="C125" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="D125" s="67"/>
-      <c r="E125" s="67"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="78"/>
       <c r="F125" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="63"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="52" t="s">
+      <c r="A126" s="61"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D126" s="52"/>
-      <c r="E126" s="52"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="65"/>
       <c r="F126" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="52" t="s">
+      <c r="A127" s="61"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
       <c r="F127" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="63"/>
-      <c r="B128" s="54"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="52"/>
+      <c r="A128" s="61"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
       <c r="F128" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="64"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="48"/>
+      <c r="A129" s="66"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="79"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="79"/>
       <c r="F129" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="62" t="s">
+      <c r="A130" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="B130" s="53" t="s">
+      <c r="B130" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C130" s="67" t="s">
+      <c r="C130" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
+      <c r="D130" s="78"/>
+      <c r="E130" s="78"/>
       <c r="F130" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="63"/>
-      <c r="B131" s="54"/>
-      <c r="C131" s="52" t="s">
+      <c r="A131" s="61"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
       <c r="F131" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="64"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="48" t="s">
+      <c r="A132" s="66"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="D132" s="48"/>
-      <c r="E132" s="48"/>
+      <c r="D132" s="79"/>
+      <c r="E132" s="79"/>
       <c r="F132" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="62" t="s">
+      <c r="A133" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="53" t="s">
+      <c r="B133" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C133" s="67" t="s">
+      <c r="C133" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="D133" s="67"/>
-      <c r="E133" s="67"/>
+      <c r="D133" s="78"/>
+      <c r="E133" s="78"/>
       <c r="F133" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="63"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="52" t="s">
+      <c r="A134" s="61"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="65"/>
       <c r="F134" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="64"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="48" t="s">
+      <c r="A135" s="66"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="79"/>
       <c r="F135" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="62" t="s">
+      <c r="A136" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B136" s="53" t="s">
+      <c r="B136" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C136" s="67" t="s">
+      <c r="C136" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
+      <c r="D136" s="78"/>
+      <c r="E136" s="78"/>
       <c r="F136" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="63"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="52" t="s">
+      <c r="A137" s="61"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D137" s="52"/>
-      <c r="E137" s="52"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="65"/>
       <c r="F137" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="64"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="48" t="s">
+      <c r="A138" s="66"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D138" s="48"/>
-      <c r="E138" s="48"/>
+      <c r="D138" s="79"/>
+      <c r="E138" s="79"/>
       <c r="F138" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="62" t="s">
+      <c r="A139" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B139" s="53" t="s">
+      <c r="B139" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C139" s="67" t="s">
+      <c r="C139" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
+      <c r="D139" s="78"/>
+      <c r="E139" s="78"/>
       <c r="F139" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="63"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="52" t="s">
+      <c r="A140" s="61"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
       <c r="F140" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="64"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="48" t="s">
+      <c r="A141" s="66"/>
+      <c r="B141" s="71"/>
+      <c r="C141" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D141" s="48"/>
-      <c r="E141" s="48"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="79"/>
       <c r="F141" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="62" t="s">
+      <c r="A142" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B142" s="53" t="s">
+      <c r="B142" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C142" s="67" t="s">
+      <c r="C142" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="D142" s="67"/>
-      <c r="E142" s="67"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="78"/>
       <c r="F142" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="63"/>
-      <c r="B143" s="54"/>
-      <c r="C143" s="52" t="s">
+      <c r="A143" s="61"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D143" s="52"/>
-      <c r="E143" s="52"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="65"/>
       <c r="F143" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="64"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="48" t="s">
+      <c r="A144" s="66"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="D144" s="48"/>
-      <c r="E144" s="48"/>
+      <c r="D144" s="79"/>
+      <c r="E144" s="79"/>
       <c r="F144" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="62" t="s">
+      <c r="A145" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B145" s="53" t="s">
+      <c r="B145" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C145" s="67" t="s">
+      <c r="C145" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
+      <c r="D145" s="78"/>
+      <c r="E145" s="78"/>
       <c r="F145" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="63"/>
-      <c r="B146" s="54"/>
-      <c r="C146" s="52" t="s">
+      <c r="A146" s="61"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
+      <c r="D146" s="65"/>
+      <c r="E146" s="65"/>
       <c r="F146" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="64"/>
-      <c r="B147" s="55"/>
-      <c r="C147" s="66"/>
-      <c r="D147" s="66"/>
-      <c r="E147" s="66"/>
+      <c r="A147" s="66"/>
+      <c r="B147" s="71"/>
+      <c r="C147" s="116"/>
+      <c r="D147" s="116"/>
+      <c r="E147" s="116"/>
       <c r="F147" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="62" t="s">
+      <c r="A148" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="53" t="s">
+      <c r="B148" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="67" t="s">
+      <c r="C148" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="D148" s="67"/>
-      <c r="E148" s="67"/>
+      <c r="D148" s="78"/>
+      <c r="E148" s="78"/>
       <c r="F148" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="63"/>
-      <c r="B149" s="54"/>
-      <c r="C149" s="52" t="s">
+      <c r="A149" s="61"/>
+      <c r="B149" s="70"/>
+      <c r="C149" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D149" s="52"/>
-      <c r="E149" s="52"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="65"/>
       <c r="F149" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="63"/>
-      <c r="B150" s="54"/>
-      <c r="C150" s="52" t="s">
+      <c r="A150" s="61"/>
+      <c r="B150" s="70"/>
+      <c r="C150" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D150" s="52"/>
-      <c r="E150" s="52"/>
+      <c r="D150" s="65"/>
+      <c r="E150" s="65"/>
       <c r="F150" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="64"/>
-      <c r="B151" s="55"/>
-      <c r="C151" s="48"/>
-      <c r="D151" s="48"/>
-      <c r="E151" s="48"/>
+      <c r="A151" s="66"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="79"/>
+      <c r="D151" s="79"/>
+      <c r="E151" s="79"/>
       <c r="F151" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="62" t="s">
+      <c r="A152" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B152" s="53" t="s">
+      <c r="B152" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C152" s="67" t="s">
+      <c r="C152" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="D152" s="67"/>
-      <c r="E152" s="67"/>
+      <c r="D152" s="78"/>
+      <c r="E152" s="78"/>
       <c r="F152" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="63"/>
-      <c r="B153" s="54"/>
-      <c r="C153" s="52" t="s">
+      <c r="A153" s="61"/>
+      <c r="B153" s="70"/>
+      <c r="C153" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D153" s="52"/>
-      <c r="E153" s="52"/>
+      <c r="D153" s="65"/>
+      <c r="E153" s="65"/>
       <c r="F153" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="64"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="48" t="s">
+      <c r="A154" s="66"/>
+      <c r="B154" s="71"/>
+      <c r="C154" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D154" s="48"/>
-      <c r="E154" s="48"/>
+      <c r="D154" s="79"/>
+      <c r="E154" s="79"/>
       <c r="F154" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="62" t="s">
+      <c r="A155" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B155" s="53" t="s">
+      <c r="B155" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C155" s="67" t="s">
+      <c r="C155" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="D155" s="67"/>
-      <c r="E155" s="67"/>
+      <c r="D155" s="78"/>
+      <c r="E155" s="78"/>
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="63"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="52" t="s">
+      <c r="A156" s="61"/>
+      <c r="B156" s="70"/>
+      <c r="C156" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="D156" s="52"/>
-      <c r="E156" s="52"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="65"/>
       <c r="F156" s="34"/>
     </row>
     <row r="157" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="64"/>
-      <c r="B157" s="55"/>
-      <c r="C157" s="48" t="s">
+      <c r="A157" s="66"/>
+      <c r="B157" s="71"/>
+      <c r="C157" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D157" s="48"/>
-      <c r="E157" s="48"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
       <c r="F157" s="35" t="s">
         <v>98</v>
       </c>
@@ -5024,11 +5024,11 @@
       <c r="B158" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C158" s="68" t="s">
+      <c r="C158" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="D158" s="68"/>
-      <c r="E158" s="68"/>
+      <c r="D158" s="93"/>
+      <c r="E158" s="93"/>
       <c r="F158" s="4" t="s">
         <v>98</v>
       </c>
@@ -5040,11 +5040,11 @@
       <c r="B159" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="68" t="s">
+      <c r="C159" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="D159" s="68"/>
-      <c r="E159" s="68"/>
+      <c r="D159" s="93"/>
+      <c r="E159" s="93"/>
       <c r="F159" s="4" t="s">
         <v>98</v>
       </c>
@@ -5056,99 +5056,99 @@
       <c r="B160" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C160" s="68" t="s">
+      <c r="C160" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
+      <c r="D160" s="93"/>
+      <c r="E160" s="93"/>
       <c r="F160" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="161" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="62" t="s">
+      <c r="A161" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B161" s="53" t="s">
+      <c r="B161" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C161" s="67" t="s">
+      <c r="C161" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="D161" s="67"/>
-      <c r="E161" s="67"/>
+      <c r="D161" s="78"/>
+      <c r="E161" s="78"/>
       <c r="F161" s="3"/>
     </row>
     <row r="162" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="114"/>
-      <c r="B162" s="115"/>
-      <c r="C162" s="119" t="s">
+      <c r="A162" s="67"/>
+      <c r="B162" s="69"/>
+      <c r="C162" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="D162" s="120"/>
-      <c r="E162" s="121"/>
+      <c r="D162" s="76"/>
+      <c r="E162" s="77"/>
       <c r="F162" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="63"/>
-      <c r="B163" s="54"/>
-      <c r="C163" s="52" t="s">
+      <c r="A163" s="61"/>
+      <c r="B163" s="70"/>
+      <c r="C163" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="D163" s="52"/>
-      <c r="E163" s="52"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="65"/>
       <c r="F163" s="34" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="64"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="48" t="s">
+      <c r="A164" s="66"/>
+      <c r="B164" s="71"/>
+      <c r="C164" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D164" s="48"/>
-      <c r="E164" s="48"/>
+      <c r="D164" s="79"/>
+      <c r="E164" s="79"/>
       <c r="F164" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="62" t="s">
+      <c r="A165" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B165" s="53" t="s">
+      <c r="B165" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C165" s="116" t="s">
+      <c r="C165" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="D165" s="117"/>
-      <c r="E165" s="118"/>
+      <c r="D165" s="73"/>
+      <c r="E165" s="74"/>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="111" t="s">
+      <c r="A166" s="61"/>
+      <c r="B166" s="70"/>
+      <c r="C166" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D166" s="112"/>
-      <c r="E166" s="113"/>
+      <c r="D166" s="63"/>
+      <c r="E166" s="64"/>
       <c r="F166" s="34" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="63"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="52" t="s">
+      <c r="A167" s="61"/>
+      <c r="B167" s="70"/>
+      <c r="C167" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="D167" s="52"/>
-      <c r="E167" s="52"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="65"/>
       <c r="F167" s="34" t="s">
         <v>102</v>
       </c>
@@ -5160,11 +5160,11 @@
       <c r="B168" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C168" s="68" t="s">
+      <c r="C168" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="D168" s="68"/>
-      <c r="E168" s="68"/>
+      <c r="D168" s="93"/>
+      <c r="E168" s="93"/>
       <c r="F168" s="4" t="s">
         <v>99</v>
       </c>
@@ -5176,11 +5176,11 @@
       <c r="B169" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C169" s="110" t="s">
+      <c r="C169" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="D169" s="110"/>
-      <c r="E169" s="110"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="92"/>
       <c r="F169" s="33" t="s">
         <v>184</v>
       </c>
@@ -5189,51 +5189,51 @@
       <c r="A170" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B170" s="107"/>
-      <c r="C170" s="108"/>
-      <c r="D170" s="108"/>
-      <c r="E170" s="109"/>
+      <c r="B170" s="89"/>
+      <c r="C170" s="90"/>
+      <c r="D170" s="90"/>
+      <c r="E170" s="91"/>
       <c r="F170" s="9"/>
     </row>
     <row r="171" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="104" t="s">
+      <c r="A171" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="B171" s="104"/>
-      <c r="C171" s="104"/>
-      <c r="D171" s="104"/>
-      <c r="E171" s="104"/>
-      <c r="F171" s="104"/>
+      <c r="B171" s="86"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="86"/>
+      <c r="E171" s="86"/>
+      <c r="F171" s="86"/>
     </row>
     <row r="172" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="105" t="s">
+      <c r="A172" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="B172" s="105"/>
-      <c r="C172" s="105"/>
-      <c r="D172" s="105"/>
-      <c r="E172" s="105"/>
-      <c r="F172" s="105"/>
+      <c r="B172" s="87"/>
+      <c r="C172" s="87"/>
+      <c r="D172" s="87"/>
+      <c r="E172" s="87"/>
+      <c r="F172" s="87"/>
     </row>
     <row r="173" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="106" t="s">
+      <c r="A173" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B173" s="106"/>
-      <c r="C173" s="106"/>
-      <c r="D173" s="106"/>
-      <c r="E173" s="106"/>
-      <c r="F173" s="106"/>
+      <c r="B173" s="88"/>
+      <c r="C173" s="88"/>
+      <c r="D173" s="88"/>
+      <c r="E173" s="88"/>
+      <c r="F173" s="88"/>
     </row>
     <row r="174" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="104" t="s">
+      <c r="A174" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="B174" s="104"/>
-      <c r="C174" s="104"/>
-      <c r="D174" s="104"/>
-      <c r="E174" s="104"/>
-      <c r="F174" s="104"/>
+      <c r="B174" s="86"/>
+      <c r="C174" s="86"/>
+      <c r="D174" s="86"/>
+      <c r="E174" s="86"/>
+      <c r="F174" s="86"/>
       <c r="Q174" s="26"/>
       <c r="R174" s="26"/>
       <c r="S174" s="26"/>
@@ -5243,12 +5243,12 @@
       <c r="B175" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C175" s="101" t="s">
+      <c r="C175" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="D175" s="102"/>
-      <c r="E175" s="102"/>
-      <c r="F175" s="103"/>
+      <c r="D175" s="84"/>
+      <c r="E175" s="84"/>
+      <c r="F175" s="85"/>
       <c r="Q175" s="15"/>
       <c r="R175" s="15"/>
       <c r="S175" s="15"/>
@@ -5258,43 +5258,300 @@
         <v>86</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="98"/>
-      <c r="D176" s="99"/>
-      <c r="E176" s="99"/>
-      <c r="F176" s="100"/>
+      <c r="C176" s="80"/>
+      <c r="D176" s="81"/>
+      <c r="E176" s="81"/>
+      <c r="F176" s="82"/>
     </row>
     <row r="177" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="98"/>
-      <c r="D177" s="99"/>
-      <c r="E177" s="99"/>
-      <c r="F177" s="100"/>
+      <c r="C177" s="80"/>
+      <c r="D177" s="81"/>
+      <c r="E177" s="81"/>
+      <c r="F177" s="82"/>
     </row>
     <row r="178" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="98"/>
-      <c r="D178" s="99"/>
-      <c r="E178" s="99"/>
-      <c r="F178" s="100"/>
+      <c r="C178" s="80"/>
+      <c r="D178" s="81"/>
+      <c r="E178" s="81"/>
+      <c r="F178" s="82"/>
     </row>
     <row r="179" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="98"/>
-      <c r="D179" s="99"/>
-      <c r="E179" s="99"/>
-      <c r="F179" s="100"/>
+      <c r="C179" s="80"/>
+      <c r="D179" s="81"/>
+      <c r="E179" s="81"/>
+      <c r="F179" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G63:G67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A173:F173"/>
+    <mergeCell ref="A174:F174"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C148:E148"/>
     <mergeCell ref="A165:A167"/>
     <mergeCell ref="C166:E166"/>
     <mergeCell ref="C167:E167"/>
@@ -5319,263 +5576,6 @@
     <mergeCell ref="A139:A141"/>
     <mergeCell ref="B139:B141"/>
     <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A173:F173"/>
-    <mergeCell ref="A174:F174"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G63:G67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C60:E60"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="7">
@@ -5613,333 +5613,333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="122"/>
-    <col min="2" max="2" width="11.7109375" style="122" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" style="122" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="122" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="122" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="122" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" style="122" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="122"/>
+    <col min="1" max="1" width="9.140625" style="48"/>
+    <col min="2" max="2" width="11.7109375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" style="48" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
     </row>
     <row r="7" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="145"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="131"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
-      <c r="B8" s="125" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="126"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="44" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="139"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="44" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="123"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="139"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="145"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="45" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="123"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="139"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="145"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="139"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
-      <c r="B13" s="140">
+      <c r="A13" s="59"/>
+      <c r="B13" s="134">
         <v>2</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="139"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
-      <c r="B14" s="141"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="44" t="s">
         <v>103</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="139"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
-      <c r="B15" s="141"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="44" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="123"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="139"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
-      <c r="B16" s="141"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="44" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="139"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
-      <c r="B17" s="141"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="44" t="s">
         <v>163</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="123"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="139"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
-      <c r="B18" s="142"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="45" t="s">
         <v>164</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="139"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="139"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="58"/>
     </row>
     <row r="20" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
-      <c r="B20" s="140" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="139"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
-      <c r="B21" s="141"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="44" t="s">
         <v>105</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
-      <c r="B22" s="141"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="44" t="s">
         <v>165</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="123"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
-      <c r="B23" s="141"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="44" t="s">
         <v>166</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="123"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145"/>
-      <c r="B24" s="142"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="136"/>
       <c r="C24" s="45" t="s">
         <v>200</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="123"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:E6">
